--- a/server/upload/timetable/TIMETABLE-TEST.xlsx
+++ b/server/upload/timetable/TIMETABLE-TEST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sai Tharak\prism\prism\server\upload\timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saith\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E40FC1-2E69-43B3-8395-AF5D38E5E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEAF217-6D72-46CC-AC3E-32E2F4747905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC8FFB05-2F98-43BB-A7E2-D1BDBD2FF1E0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" xr2:uid="{BC8FFB05-2F98-43BB-A7E2-D1BDBD2FF1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Day/Time</t>
   </si>
   <si>
-    <t>9:30-10:20</t>
-  </si>
-  <si>
     <t>10:20-11:10</t>
   </si>
   <si>
@@ -102,21 +99,9 @@
     <t>11:20-12:10</t>
   </si>
   <si>
-    <t>12:10 - 1:00</t>
-  </si>
-  <si>
     <t>1:00-1:45</t>
   </si>
   <si>
-    <t>01:45 - 02:35</t>
-  </si>
-  <si>
-    <t>02:35 - 03:25</t>
-  </si>
-  <si>
-    <t>03:25 - 04:15</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -358,6 +343,21 @@
   </si>
   <si>
     <t>CD LAB</t>
+  </si>
+  <si>
+    <t>09:30-10:20</t>
+  </si>
+  <si>
+    <t>02:35-03:25</t>
+  </si>
+  <si>
+    <t>12:10-01:00</t>
+  </si>
+  <si>
+    <t>01:45-02:35</t>
+  </si>
+  <si>
+    <t>03:25-04:15</t>
   </si>
 </sst>
 </file>
@@ -955,6 +955,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,9 +1005,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,39 +1357,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38D991-F8CF-4663-9D75-35C5DFA805EA}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.8">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:10" ht="22.5">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="50"/>
@@ -1402,8 +1402,8 @@
       <c r="I2" s="50"/>
       <c r="J2" s="54"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
-      <c r="A3" s="80" t="s">
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="50"/>
@@ -1417,74 +1417,74 @@
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.399999999999999">
-      <c r="A5" s="84" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
+      <c r="A5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="87" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="47"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="85"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.399999999999999">
-      <c r="A6" s="69" t="s">
+      <c r="G5" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="86"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
+      <c r="A6" s="70" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="47"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="47"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="72" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10" ht="17.399999999999999">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="47"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="73" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1512,204 +1512,204 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="31.2">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="H9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="D10" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="G10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="I10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="13" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="14" t="s">
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="12" t="s">
+    <row r="13" spans="1:10" ht="31.5">
+      <c r="A13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="56" t="s">
+      <c r="C13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="56" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.2">
-      <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="56" t="s">
-        <v>46</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="75"/>
+      <c r="H14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="11" t="s">
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="76"/>
+      <c r="H15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="J15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="68"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="69"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -1720,48 +1720,48 @@
       <c r="I16" s="46"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="67"/>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
+      <c r="A18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>63</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E18" s="19">
         <v>3</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="47"/>
@@ -1769,25 +1769,25 @@
         <v>9391612724</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C19" s="58"/>
       <c r="D19" s="36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E19" s="19">
         <v>7</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G19" s="46"/>
       <c r="H19" s="47"/>
@@ -1795,25 +1795,25 @@
         <v>9849520069</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E20" s="19">
         <v>7</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="47"/>
@@ -1821,19 +1821,19 @@
         <v>9003044894</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E21" s="19">
         <v>7</v>
@@ -1847,25 +1847,25 @@
         <v>9703655191</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E22" s="19">
         <v>4</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
@@ -1873,25 +1873,25 @@
         <v>9618989439</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E23" s="19">
         <v>3</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="47"/>
@@ -1899,25 +1899,25 @@
         <v>9666398378</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C24" s="58"/>
       <c r="D24" s="36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E24" s="19">
         <v>3</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="47"/>
@@ -1925,25 +1925,25 @@
         <v>9701883109</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="58"/>
       <c r="D25" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E25" s="19">
         <v>3</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="47"/>
@@ -1951,25 +1951,25 @@
         <v>9000281685</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="32.4" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="32.450000000000003" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" s="19">
         <v>2</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G26" s="46"/>
       <c r="H26" s="47"/>
@@ -1977,23 +1977,23 @@
         <v>8074169865</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="18"/>
       <c r="B27" s="60" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C27" s="61"/>
       <c r="D27" s="38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27" s="23">
         <v>1</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="47"/>
@@ -2002,14 +2002,14 @@
       </c>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="18"/>
       <c r="B28" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E28" s="23">
         <v>1</v>
@@ -2020,14 +2020,14 @@
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="18"/>
       <c r="B29" s="57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C29" s="58"/>
       <c r="D29" s="36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E29" s="23">
         <v>1</v>
@@ -2038,14 +2038,14 @@
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6">
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="18"/>
       <c r="B30" s="57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C30" s="58"/>
       <c r="D30" s="36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E30" s="23">
         <v>1</v>
@@ -2056,10 +2056,10 @@
       <c r="I30" s="25"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="13"/>
       <c r="B31" s="56" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="47"/>
@@ -2073,10 +2073,10 @@
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="13"/>
       <c r="B32" s="45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -2087,16 +2087,16 @@
       <c r="I32" s="46"/>
       <c r="J32" s="47"/>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="30"/>
       <c r="B33" s="48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C33" s="46"/>
       <c r="D33" s="47"/>
       <c r="E33" s="4"/>
       <c r="F33" s="48" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="47"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="J33" s="47"/>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -2116,21 +2116,21 @@
       <c r="I34" s="32"/>
       <c r="J34" s="34"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="49" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B35" s="50"/>
       <c r="D35" s="51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="52" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G35" s="50"/>
       <c r="I35" s="53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J35" s="54"/>
     </row>
@@ -2146,9 +2146,9 @@
       <c r="I36" s="40"/>
       <c r="J36" s="41"/>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1">
       <c r="A37" s="42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>

--- a/server/upload/timetable/TIMETABLE-TEST.xlsx
+++ b/server/upload/timetable/TIMETABLE-TEST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saith\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEAF217-6D72-46CC-AC3E-32E2F4747905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488126C5-05CB-4FB8-B44E-02FF3C4D32AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" xr2:uid="{BC8FFB05-2F98-43BB-A7E2-D1BDBD2FF1E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC8FFB05-2F98-43BB-A7E2-D1BDBD2FF1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -276,9 +276,6 @@
     <t>MR P V RAMAN MURTHY,MS M SRUJANA</t>
   </si>
   <si>
-    <t>MREC-CSE-165</t>
-  </si>
-  <si>
     <t>B0544</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>DR SHAIK JAVED PARVEZ,MR K NAGA LAKSHMAN</t>
   </si>
   <si>
-    <t>MREC-CSE-178</t>
-  </si>
-  <si>
     <t>B00M4</t>
   </si>
   <si>
@@ -358,6 +352,12 @@
   </si>
   <si>
     <t>03:25-04:15</t>
+  </si>
+  <si>
+    <t>MREC-CSE-006,MREC-CSE-165</t>
+  </si>
+  <si>
+    <t>MREC-CSE-170,MREC-CSE-178</t>
   </si>
 </sst>
 </file>
@@ -884,11 +884,107 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -897,15 +993,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -915,96 +1005,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,134 +1357,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38D991-F8CF-4663-9D75-35C5DFA805EA}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:10" ht="22.8">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="81" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="81" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.399999999999999">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="54"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="85" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.399999999999999">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="86"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75">
-      <c r="A6" s="70" t="s">
+      <c r="G5" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.399999999999999">
+      <c r="A6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75">
-      <c r="A7" s="70" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.399999999999999">
+      <c r="A7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1512,12 +1512,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="31.5">
+    <row r="9" spans="1:10" ht="31.2">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>21</v>
@@ -1529,22 +1529,22 @@
         <v>23</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="C10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="62" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1563,7 +1563,7 @@
       <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="62" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -1576,7 +1576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75">
+    <row r="11" spans="1:10" ht="15.6">
       <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
@@ -1586,12 +1586,12 @@
       <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="56" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="75"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="11" t="s">
         <v>27</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="12" spans="1:10" ht="15.6">
       <c r="A12" s="12" t="s">
         <v>37</v>
       </c>
@@ -1612,14 +1612,14 @@
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="13" t="s">
         <v>29</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="31.5">
+    <row r="13" spans="1:10" ht="31.2">
       <c r="A13" s="12" t="s">
         <v>39</v>
       </c>
@@ -1640,36 +1640,36 @@
       <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="56" t="s">
+      <c r="G13" s="63"/>
+      <c r="H13" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="75"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="11" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="75"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="13" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
@@ -1690,14 +1690,14 @@
       <c r="C15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="76"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="76"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="13" t="s">
         <v>26</v>
       </c>
@@ -1708,37 +1708,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="69"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.6">
+      <c r="A16" s="55"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6">
       <c r="A17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="17" t="s">
         <v>55</v>
       </c>
@@ -1746,25 +1746,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.6">
       <c r="A18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="35" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="19">
         <v>3</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="20">
         <v>9391612724</v>
       </c>
@@ -1772,25 +1772,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.6">
       <c r="A19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="19">
         <v>7</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="20">
         <v>9849520069</v>
       </c>
@@ -1798,25 +1798,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.6">
       <c r="A20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="19">
         <v>7</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="20">
         <v>9003044894</v>
       </c>
@@ -1824,25 +1824,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.6">
       <c r="A21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="36" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="19">
         <v>7</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="20">
         <v>9703655191</v>
       </c>
@@ -1854,21 +1854,21 @@
       <c r="A22" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="19">
         <v>4</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="20">
         <v>9618989439</v>
       </c>
@@ -1876,25 +1876,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.6">
       <c r="A23" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="19">
         <v>3</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="20">
         <v>9666398378</v>
       </c>
@@ -1902,210 +1902,210 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.6">
       <c r="A24" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="58"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="19">
         <v>3</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="20">
         <v>9701883109</v>
       </c>
       <c r="J24" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6">
+      <c r="A25" s="22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="22" t="s">
+      <c r="B25" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E25" s="19">
         <v>3</v>
       </c>
-      <c r="F25" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
+      <c r="F25" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="20">
         <v>9000281685</v>
       </c>
       <c r="J25" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="32.4" customHeight="1">
+      <c r="A26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="74" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="32.450000000000003" customHeight="1">
-      <c r="A26" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="38" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="19">
         <v>2</v>
       </c>
-      <c r="F26" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
+      <c r="F26" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="20">
         <v>8074169865</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6">
       <c r="A27" s="18"/>
-      <c r="B27" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="61"/>
+      <c r="B27" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="75"/>
       <c r="D27" s="38" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="23">
         <v>1</v>
       </c>
-      <c r="F27" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
+      <c r="F27" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="20">
         <v>7093822522</v>
       </c>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.6">
       <c r="A28" s="18"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="36" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="23">
         <v>1</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.6">
       <c r="A29" s="18"/>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="23">
         <v>1</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
+    <row r="30" spans="1:10" ht="15.6">
       <c r="A30" s="18"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="23">
         <v>1</v>
       </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="25"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="15.6">
       <c r="A31" s="13"/>
-      <c r="B31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
+      <c r="B31" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="15">
         <f>SUM(E18:E30)</f>
         <v>43</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="15.6">
       <c r="A32" s="13"/>
-      <c r="B32" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75">
+      <c r="B32" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6">
       <c r="A33" s="30"/>
-      <c r="B33" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
+      <c r="B33" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48">
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="79">
         <v>9849520069</v>
       </c>
-      <c r="J33" s="47"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75">
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -2116,78 +2116,72 @@
       <c r="I34" s="32"/>
       <c r="J34" s="34"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:10" ht="15.6">
+      <c r="A35" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="D35" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="D35" s="51" t="s">
+      <c r="G35" s="43"/>
+      <c r="I35" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="52" t="s">
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="81"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="60"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1">
+      <c r="A37" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="I35" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="54"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A37" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F21:H21"/>
@@ -2201,26 +2195,32 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
